--- a/test/result2.xlsx
+++ b/test/result2.xlsx
@@ -14,7 +14,1036 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
+  <si>
+    <t>24.53</t>
+  </si>
+  <si>
+    <t>24.55</t>
+  </si>
+  <si>
+    <t>24.57</t>
+  </si>
+  <si>
+    <t>24.58</t>
+  </si>
+  <si>
+    <t>24.60</t>
+  </si>
+  <si>
+    <t>24.62</t>
+  </si>
+  <si>
+    <t>24.63</t>
+  </si>
+  <si>
+    <t>24.65</t>
+  </si>
+  <si>
+    <t>24.67</t>
+  </si>
+  <si>
+    <t>24.68</t>
+  </si>
+  <si>
+    <t>24.70</t>
+  </si>
+  <si>
+    <t>24.72</t>
+  </si>
+  <si>
+    <t>24.73</t>
+  </si>
+  <si>
+    <t>24.75</t>
+  </si>
+  <si>
+    <t>24.77</t>
+  </si>
+  <si>
+    <t>24.78</t>
+  </si>
+  <si>
+    <t>24.80</t>
+  </si>
+  <si>
+    <t>24.82</t>
+  </si>
+  <si>
+    <t>24.83</t>
+  </si>
+  <si>
+    <t>24.85</t>
+  </si>
+  <si>
+    <t>24.87</t>
+  </si>
+  <si>
+    <t>24.88</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>24.92</t>
+  </si>
+  <si>
+    <t>24.93</t>
+  </si>
+  <si>
+    <t>24.95</t>
+  </si>
+  <si>
+    <t>24.97</t>
+  </si>
+  <si>
+    <t>24.98</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.02</t>
+  </si>
+  <si>
+    <t>25.03</t>
+  </si>
+  <si>
+    <t>25.05</t>
+  </si>
+  <si>
+    <t>25.07</t>
+  </si>
+  <si>
+    <t>25.08</t>
+  </si>
+  <si>
+    <t>25.10</t>
+  </si>
+  <si>
+    <t>25.12</t>
+  </si>
+  <si>
+    <t>25.13</t>
+  </si>
+  <si>
+    <t>25.15</t>
+  </si>
+  <si>
+    <t>25.17</t>
+  </si>
+  <si>
+    <t>25.18</t>
+  </si>
+  <si>
+    <t>25.20</t>
+  </si>
+  <si>
+    <t>25.22</t>
+  </si>
+  <si>
+    <t>25.23</t>
+  </si>
+  <si>
+    <t>25.25</t>
+  </si>
+  <si>
+    <t>25.27</t>
+  </si>
+  <si>
+    <t>25.28</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>25.32</t>
+  </si>
+  <si>
+    <t>25.33</t>
+  </si>
+  <si>
+    <t>25.35</t>
+  </si>
+  <si>
+    <t>25.37</t>
+  </si>
+  <si>
+    <t>25.38</t>
+  </si>
+  <si>
+    <t>25.40</t>
+  </si>
+  <si>
+    <t>25.42</t>
+  </si>
+  <si>
+    <t>25.43</t>
+  </si>
+  <si>
+    <t>25.45</t>
+  </si>
+  <si>
+    <t>25.47</t>
+  </si>
+  <si>
+    <t>25.48</t>
+  </si>
+  <si>
+    <t>25.50</t>
+  </si>
+  <si>
+    <t>25.52</t>
+  </si>
+  <si>
+    <t>25.53</t>
+  </si>
+  <si>
+    <t>25.55</t>
+  </si>
+  <si>
+    <t>25.57</t>
+  </si>
+  <si>
+    <t>25.58</t>
+  </si>
+  <si>
+    <t>25.60</t>
+  </si>
+  <si>
+    <t>25.62</t>
+  </si>
+  <si>
+    <t>25.63</t>
+  </si>
+  <si>
+    <t>25.65</t>
+  </si>
+  <si>
+    <t>25.67</t>
+  </si>
+  <si>
+    <t>25.68</t>
+  </si>
+  <si>
+    <t>25.70</t>
+  </si>
+  <si>
+    <t>25.72</t>
+  </si>
+  <si>
+    <t>25.73</t>
+  </si>
+  <si>
+    <t>25.75</t>
+  </si>
+  <si>
+    <t>25.77</t>
+  </si>
+  <si>
+    <t>25.78</t>
+  </si>
+  <si>
+    <t>25.80</t>
+  </si>
+  <si>
+    <t>25.82</t>
+  </si>
+  <si>
+    <t>25.83</t>
+  </si>
+  <si>
+    <t>25.85</t>
+  </si>
+  <si>
+    <t>25.87</t>
+  </si>
+  <si>
+    <t>25.88</t>
+  </si>
+  <si>
+    <t>25.90</t>
+  </si>
+  <si>
+    <t>25.92</t>
+  </si>
+  <si>
+    <t>25.93</t>
+  </si>
+  <si>
+    <t>25.95</t>
+  </si>
+  <si>
+    <t>25.97</t>
+  </si>
+  <si>
+    <t>25.98</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.02</t>
+  </si>
+  <si>
+    <t>26.03</t>
+  </si>
+  <si>
+    <t>26.05</t>
+  </si>
+  <si>
+    <t>26.07</t>
+  </si>
+  <si>
+    <t>26.08</t>
+  </si>
+  <si>
+    <t>26.10</t>
+  </si>
+  <si>
+    <t>26.12</t>
+  </si>
+  <si>
+    <t>26.13</t>
+  </si>
+  <si>
+    <t>26.15</t>
+  </si>
+  <si>
+    <t>26.17</t>
+  </si>
+  <si>
+    <t>26.18</t>
+  </si>
+  <si>
+    <t>26.20</t>
+  </si>
+  <si>
+    <t>26.22</t>
+  </si>
+  <si>
+    <t>26.23</t>
+  </si>
+  <si>
+    <t>26.25</t>
+  </si>
+  <si>
+    <t>26.27</t>
+  </si>
+  <si>
+    <t>26.28</t>
+  </si>
+  <si>
+    <t>26.30</t>
+  </si>
+  <si>
+    <t>26.32</t>
+  </si>
+  <si>
+    <t>26.33</t>
+  </si>
+  <si>
+    <t>26.35</t>
+  </si>
+  <si>
+    <t>26.37</t>
+  </si>
+  <si>
+    <t>26.38</t>
+  </si>
+  <si>
+    <t>26.40</t>
+  </si>
+  <si>
+    <t>26.42</t>
+  </si>
+  <si>
+    <t>26.43</t>
+  </si>
+  <si>
+    <t>26.45</t>
+  </si>
+  <si>
+    <t>26.47</t>
+  </si>
+  <si>
+    <t>26.48</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.52</t>
+  </si>
+  <si>
+    <t>26.53</t>
+  </si>
+  <si>
+    <t>26.55</t>
+  </si>
+  <si>
+    <t>26.57</t>
+  </si>
+  <si>
+    <t>26.58</t>
+  </si>
+  <si>
+    <t>26.60</t>
+  </si>
+  <si>
+    <t>26.62</t>
+  </si>
+  <si>
+    <t>26.63</t>
+  </si>
+  <si>
+    <t>26.65</t>
+  </si>
+  <si>
+    <t>26.67</t>
+  </si>
+  <si>
+    <t>26.68</t>
+  </si>
+  <si>
+    <t>26.70</t>
+  </si>
+  <si>
+    <t>26.72</t>
+  </si>
+  <si>
+    <t>26.73</t>
+  </si>
+  <si>
+    <t>26.75</t>
+  </si>
+  <si>
+    <t>26.77</t>
+  </si>
+  <si>
+    <t>26.78</t>
+  </si>
+  <si>
+    <t>26.80</t>
+  </si>
+  <si>
+    <t>26.82</t>
+  </si>
+  <si>
+    <t>26.83</t>
+  </si>
+  <si>
+    <t>26.85</t>
+  </si>
+  <si>
+    <t>26.87</t>
+  </si>
+  <si>
+    <t>26.88</t>
+  </si>
+  <si>
+    <t>26.90</t>
+  </si>
+  <si>
+    <t>26.92</t>
+  </si>
+  <si>
+    <t>26.93</t>
+  </si>
+  <si>
+    <t>26.95</t>
+  </si>
+  <si>
+    <t>26.97</t>
+  </si>
+  <si>
+    <t>26.98</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.02</t>
+  </si>
+  <si>
+    <t>27.03</t>
+  </si>
+  <si>
+    <t>27.05</t>
+  </si>
+  <si>
+    <t>27.07</t>
+  </si>
+  <si>
+    <t>27.08</t>
+  </si>
+  <si>
+    <t>27.10</t>
+  </si>
+  <si>
+    <t>27.12</t>
+  </si>
+  <si>
+    <t>27.13</t>
+  </si>
+  <si>
+    <t>27.15</t>
+  </si>
+  <si>
+    <t>27.17</t>
+  </si>
+  <si>
+    <t>27.18</t>
+  </si>
+  <si>
+    <t>27.20</t>
+  </si>
+  <si>
+    <t>27.22</t>
+  </si>
+  <si>
+    <t>27.23</t>
+  </si>
+  <si>
+    <t>27.25</t>
+  </si>
+  <si>
+    <t>27.27</t>
+  </si>
+  <si>
+    <t>27.28</t>
+  </si>
+  <si>
+    <t>27.30</t>
+  </si>
+  <si>
+    <t>27.32</t>
+  </si>
+  <si>
+    <t>27.33</t>
+  </si>
+  <si>
+    <t>27.35</t>
+  </si>
+  <si>
+    <t>27.37</t>
+  </si>
+  <si>
+    <t>27.38</t>
+  </si>
+  <si>
+    <t>27.40</t>
+  </si>
+  <si>
+    <t>27.42</t>
+  </si>
+  <si>
+    <t>27.43</t>
+  </si>
+  <si>
+    <t>27.45</t>
+  </si>
+  <si>
+    <t>27.47</t>
+  </si>
+  <si>
+    <t>27.48</t>
+  </si>
+  <si>
+    <t>27.50</t>
+  </si>
+  <si>
+    <t>27.52</t>
+  </si>
+  <si>
+    <t>27.53</t>
+  </si>
+  <si>
+    <t>27.55</t>
+  </si>
+  <si>
+    <t>27.57</t>
+  </si>
+  <si>
+    <t>27.58</t>
+  </si>
+  <si>
+    <t>27.60</t>
+  </si>
+  <si>
+    <t>27.62</t>
+  </si>
+  <si>
+    <t>27.63</t>
+  </si>
+  <si>
+    <t>27.65</t>
+  </si>
+  <si>
+    <t>27.67</t>
+  </si>
+  <si>
+    <t>27.68</t>
+  </si>
+  <si>
+    <t>27.70</t>
+  </si>
+  <si>
+    <t>27.72</t>
+  </si>
+  <si>
+    <t>27.73</t>
+  </si>
+  <si>
+    <t>27.75</t>
+  </si>
+  <si>
+    <t>27.77</t>
+  </si>
+  <si>
+    <t>27.78</t>
+  </si>
+  <si>
+    <t>27.80</t>
+  </si>
+  <si>
+    <t>27.82</t>
+  </si>
+  <si>
+    <t>27.83</t>
+  </si>
+  <si>
+    <t>27.85</t>
+  </si>
+  <si>
+    <t>27.87</t>
+  </si>
+  <si>
+    <t>27.88</t>
+  </si>
+  <si>
+    <t>27.90</t>
+  </si>
+  <si>
+    <t>27.92</t>
+  </si>
+  <si>
+    <t>27.93</t>
+  </si>
+  <si>
+    <t>27.95</t>
+  </si>
+  <si>
+    <t>27.97</t>
+  </si>
+  <si>
+    <t>27.98</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.02</t>
+  </si>
+  <si>
+    <t>28.03</t>
+  </si>
+  <si>
+    <t>28.05</t>
+  </si>
+  <si>
+    <t>28.07</t>
+  </si>
+  <si>
+    <t>28.08</t>
+  </si>
+  <si>
+    <t>28.10</t>
+  </si>
+  <si>
+    <t>28.12</t>
+  </si>
+  <si>
+    <t>28.13</t>
+  </si>
+  <si>
+    <t>28.15</t>
+  </si>
+  <si>
+    <t>28.17</t>
+  </si>
+  <si>
+    <t>28.18</t>
+  </si>
+  <si>
+    <t>28.20</t>
+  </si>
+  <si>
+    <t>28.22</t>
+  </si>
+  <si>
+    <t>28.23</t>
+  </si>
+  <si>
+    <t>28.25</t>
+  </si>
+  <si>
+    <t>28.27</t>
+  </si>
+  <si>
+    <t>28.28</t>
+  </si>
+  <si>
+    <t>28.30</t>
+  </si>
+  <si>
+    <t>28.32</t>
+  </si>
+  <si>
+    <t>28.33</t>
+  </si>
+  <si>
+    <t>28.35</t>
+  </si>
+  <si>
+    <t>28.37</t>
+  </si>
+  <si>
+    <t>28.38</t>
+  </si>
+  <si>
+    <t>28.40</t>
+  </si>
+  <si>
+    <t>28.42</t>
+  </si>
+  <si>
+    <t>28.43</t>
+  </si>
+  <si>
+    <t>28.45</t>
+  </si>
+  <si>
+    <t>28.47</t>
+  </si>
+  <si>
+    <t>28.48</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>28.52</t>
+  </si>
+  <si>
+    <t>28.53</t>
+  </si>
+  <si>
+    <t>28.55</t>
+  </si>
+  <si>
+    <t>28.57</t>
+  </si>
+  <si>
+    <t>28.58</t>
+  </si>
+  <si>
+    <t>28.60</t>
+  </si>
+  <si>
+    <t>28.62</t>
+  </si>
+  <si>
+    <t>28.63</t>
+  </si>
+  <si>
+    <t>28.65</t>
+  </si>
+  <si>
+    <t>28.67</t>
+  </si>
+  <si>
+    <t>28.68</t>
+  </si>
+  <si>
+    <t>28.70</t>
+  </si>
+  <si>
+    <t>28.72</t>
+  </si>
+  <si>
+    <t>28.73</t>
+  </si>
+  <si>
+    <t>28.75</t>
+  </si>
+  <si>
+    <t>28.77</t>
+  </si>
+  <si>
+    <t>28.78</t>
+  </si>
+  <si>
+    <t>28.80</t>
+  </si>
+  <si>
+    <t>28.82</t>
+  </si>
+  <si>
+    <t>28.83</t>
+  </si>
+  <si>
+    <t>28.85</t>
+  </si>
+  <si>
+    <t>28.87</t>
+  </si>
+  <si>
+    <t>28.88</t>
+  </si>
+  <si>
+    <t>28.90</t>
+  </si>
+  <si>
+    <t>28.92</t>
+  </si>
+  <si>
+    <t>28.93</t>
+  </si>
+  <si>
+    <t>28.95</t>
+  </si>
+  <si>
+    <t>28.97</t>
+  </si>
+  <si>
+    <t>28.98</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.02</t>
+  </si>
+  <si>
+    <t>29.03</t>
+  </si>
+  <si>
+    <t>29.05</t>
+  </si>
+  <si>
+    <t>29.07</t>
+  </si>
+  <si>
+    <t>29.08</t>
+  </si>
+  <si>
+    <t>29.10</t>
+  </si>
+  <si>
+    <t>29.12</t>
+  </si>
+  <si>
+    <t>29.13</t>
+  </si>
+  <si>
+    <t>29.15</t>
+  </si>
+  <si>
+    <t>29.17</t>
+  </si>
+  <si>
+    <t>29.18</t>
+  </si>
+  <si>
+    <t>29.20</t>
+  </si>
+  <si>
+    <t>29.22</t>
+  </si>
+  <si>
+    <t>29.23</t>
+  </si>
+  <si>
+    <t>29.25</t>
+  </si>
+  <si>
+    <t>29.27</t>
+  </si>
+  <si>
+    <t>29.28</t>
+  </si>
+  <si>
+    <t>29.30</t>
+  </si>
+  <si>
+    <t>29.32</t>
+  </si>
+  <si>
+    <t>29.33</t>
+  </si>
+  <si>
+    <t>29.35</t>
+  </si>
+  <si>
+    <t>29.37</t>
+  </si>
+  <si>
+    <t>29.38</t>
+  </si>
+  <si>
+    <t>29.40</t>
+  </si>
+  <si>
+    <t>29.42</t>
+  </si>
+  <si>
+    <t>29.43</t>
+  </si>
+  <si>
+    <t>29.45</t>
+  </si>
+  <si>
+    <t>29.47</t>
+  </si>
+  <si>
+    <t>29.48</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.52</t>
+  </si>
+  <si>
+    <t>29.53</t>
+  </si>
+  <si>
+    <t>29.55</t>
+  </si>
+  <si>
+    <t>29.57</t>
+  </si>
+  <si>
+    <t>29.58</t>
+  </si>
+  <si>
+    <t>29.60</t>
+  </si>
+  <si>
+    <t>29.62</t>
+  </si>
+  <si>
+    <t>29.63</t>
+  </si>
+  <si>
+    <t>29.65</t>
+  </si>
+  <si>
+    <t>29.67</t>
+  </si>
+  <si>
+    <t>29.68</t>
+  </si>
+  <si>
+    <t>29.70</t>
+  </si>
+  <si>
+    <t>29.72</t>
+  </si>
+  <si>
+    <t>29.73</t>
+  </si>
+  <si>
+    <t>29.75</t>
+  </si>
+  <si>
+    <t>29.77</t>
+  </si>
+  <si>
+    <t>29.78</t>
+  </si>
+  <si>
+    <t>29.80</t>
+  </si>
+  <si>
+    <t>29.82</t>
+  </si>
+  <si>
+    <t>29.83</t>
+  </si>
+  <si>
+    <t>29.85</t>
+  </si>
+  <si>
+    <t>29.87</t>
+  </si>
+  <si>
+    <t>29.88</t>
+  </si>
+  <si>
+    <t>29.90</t>
+  </si>
+  <si>
+    <t>29.92</t>
+  </si>
+  <si>
+    <t>29.93</t>
+  </si>
+  <si>
+    <t>29.95</t>
+  </si>
+  <si>
+    <t>29.97</t>
+  </si>
+  <si>
+    <t>29.98</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.02</t>
+  </si>
+  <si>
+    <t>30.03</t>
+  </si>
+  <si>
+    <t>30.05</t>
+  </si>
+  <si>
+    <t>30.07</t>
+  </si>
+  <si>
+    <t>30.08</t>
+  </si>
+  <si>
+    <t>30.10</t>
+  </si>
+  <si>
+    <t>30.12</t>
+  </si>
+  <si>
+    <t>30.13</t>
+  </si>
+  <si>
+    <t>30.15</t>
+  </si>
+  <si>
+    <t>30.17</t>
+  </si>
+  <si>
+    <t>30.18</t>
+  </si>
+  <si>
+    <t>30.20</t>
+  </si>
+  <si>
+    <t>30.22</t>
+  </si>
+  <si>
+    <t>30.23</t>
+  </si>
   <si>
     <t>30.25</t>
   </si>
@@ -521,171 +1550,6 @@
   </si>
   <si>
     <t>33.05</t>
-  </si>
-  <si>
-    <t>33.07</t>
-  </si>
-  <si>
-    <t>33.08</t>
-  </si>
-  <si>
-    <t>33.10</t>
-  </si>
-  <si>
-    <t>33.12</t>
-  </si>
-  <si>
-    <t>33.13</t>
-  </si>
-  <si>
-    <t>33.15</t>
-  </si>
-  <si>
-    <t>33.17</t>
-  </si>
-  <si>
-    <t>33.18</t>
-  </si>
-  <si>
-    <t>33.20</t>
-  </si>
-  <si>
-    <t>33.22</t>
-  </si>
-  <si>
-    <t>33.23</t>
-  </si>
-  <si>
-    <t>33.25</t>
-  </si>
-  <si>
-    <t>33.27</t>
-  </si>
-  <si>
-    <t>33.28</t>
-  </si>
-  <si>
-    <t>33.30</t>
-  </si>
-  <si>
-    <t>33.32</t>
-  </si>
-  <si>
-    <t>33.33</t>
-  </si>
-  <si>
-    <t>33.35</t>
-  </si>
-  <si>
-    <t>33.37</t>
-  </si>
-  <si>
-    <t>33.38</t>
-  </si>
-  <si>
-    <t>33.40</t>
-  </si>
-  <si>
-    <t>33.42</t>
-  </si>
-  <si>
-    <t>33.43</t>
-  </si>
-  <si>
-    <t>33.45</t>
-  </si>
-  <si>
-    <t>33.47</t>
-  </si>
-  <si>
-    <t>33.48</t>
-  </si>
-  <si>
-    <t>33.50</t>
-  </si>
-  <si>
-    <t>33.52</t>
-  </si>
-  <si>
-    <t>33.53</t>
-  </si>
-  <si>
-    <t>33.55</t>
-  </si>
-  <si>
-    <t>33.57</t>
-  </si>
-  <si>
-    <t>33.58</t>
-  </si>
-  <si>
-    <t>33.60</t>
-  </si>
-  <si>
-    <t>33.62</t>
-  </si>
-  <si>
-    <t>33.63</t>
-  </si>
-  <si>
-    <t>33.65</t>
-  </si>
-  <si>
-    <t>33.67</t>
-  </si>
-  <si>
-    <t>33.68</t>
-  </si>
-  <si>
-    <t>33.70</t>
-  </si>
-  <si>
-    <t>33.72</t>
-  </si>
-  <si>
-    <t>33.73</t>
-  </si>
-  <si>
-    <t>33.75</t>
-  </si>
-  <si>
-    <t>33.77</t>
-  </si>
-  <si>
-    <t>33.78</t>
-  </si>
-  <si>
-    <t>33.80</t>
-  </si>
-  <si>
-    <t>33.82</t>
-  </si>
-  <si>
-    <t>33.83</t>
-  </si>
-  <si>
-    <t>33.85</t>
-  </si>
-  <si>
-    <t>33.87</t>
-  </si>
-  <si>
-    <t>33.88</t>
-  </si>
-  <si>
-    <t>33.90</t>
-  </si>
-  <si>
-    <t>33.92</t>
-  </si>
-  <si>
-    <t>33.93</t>
-  </si>
-  <si>
-    <t>33.95</t>
-  </si>
-  <si>
-    <t>33.97</t>
   </si>
 </sst>
 </file>
@@ -1043,13 +1907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HP3"/>
+  <dimension ref="A1:SR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:224">
+    <row r="1" spans="1:512">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,8 +2586,872 @@
       <c r="HP1" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="HQ1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="OL1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="OM1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="ON1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="OO1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="OP1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="OQ1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="OR1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="OS1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="OT1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="OU1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="OV1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="OW1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="OX1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="OY1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="OZ1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="PA1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="PB1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="PC1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="PD1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="PE1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="PF1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="PG1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="PH1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="PI1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="PJ1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="PK1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="PL1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="PM1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="PN1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="PO1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="PP1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="PQ1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="PR1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="PS1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="PT1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="PU1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="PV1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="PW1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="PX1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="PY1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="PZ1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="QA1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="QB1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="QC1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="QD1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="QE1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="QF1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="QG1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="QH1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="QI1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="QJ1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="QK1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="QL1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="QM1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="QN1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="QO1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="QP1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="QQ1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="QR1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="QS1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="QT1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="QU1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="QV1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="QW1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="QX1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="QY1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="QZ1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="RA1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="RB1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="RC1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="RD1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="RE1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="RF1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="RG1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="RH1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="RI1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="RJ1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="RK1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="RL1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="RM1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="RN1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="RO1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="RP1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="RQ1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="RR1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="RS1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="RT1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="RU1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="RV1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="RW1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="RX1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="RY1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="RZ1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="SA1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="SB1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="SC1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="SD1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="SE1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="SF1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="SG1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="SH1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="SI1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="SJ1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="SK1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="SL1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="SM1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="SN1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="SO1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="SP1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="SQ1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="SR1" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
-    <row r="2" spans="1:224">
+    <row r="2" spans="1:512">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2396,8 +4124,872 @@
       <c r="HP2">
         <v>0</v>
       </c>
+      <c r="HQ2">
+        <v>0</v>
+      </c>
+      <c r="HR2">
+        <v>0</v>
+      </c>
+      <c r="HS2">
+        <v>0</v>
+      </c>
+      <c r="HT2">
+        <v>0</v>
+      </c>
+      <c r="HU2">
+        <v>0</v>
+      </c>
+      <c r="HV2">
+        <v>0</v>
+      </c>
+      <c r="HW2">
+        <v>0</v>
+      </c>
+      <c r="HX2">
+        <v>0</v>
+      </c>
+      <c r="HY2">
+        <v>0</v>
+      </c>
+      <c r="HZ2">
+        <v>0</v>
+      </c>
+      <c r="IA2">
+        <v>0</v>
+      </c>
+      <c r="IB2">
+        <v>0</v>
+      </c>
+      <c r="IC2">
+        <v>0</v>
+      </c>
+      <c r="ID2">
+        <v>0</v>
+      </c>
+      <c r="IE2">
+        <v>0</v>
+      </c>
+      <c r="IF2">
+        <v>0</v>
+      </c>
+      <c r="IG2">
+        <v>0</v>
+      </c>
+      <c r="IH2">
+        <v>0</v>
+      </c>
+      <c r="II2">
+        <v>0</v>
+      </c>
+      <c r="IJ2">
+        <v>0</v>
+      </c>
+      <c r="IK2">
+        <v>0</v>
+      </c>
+      <c r="IL2">
+        <v>0</v>
+      </c>
+      <c r="IM2">
+        <v>0</v>
+      </c>
+      <c r="IN2">
+        <v>0</v>
+      </c>
+      <c r="IO2">
+        <v>0</v>
+      </c>
+      <c r="IP2">
+        <v>0</v>
+      </c>
+      <c r="IQ2">
+        <v>0</v>
+      </c>
+      <c r="IR2">
+        <v>0</v>
+      </c>
+      <c r="IS2">
+        <v>0</v>
+      </c>
+      <c r="IT2">
+        <v>0</v>
+      </c>
+      <c r="IU2">
+        <v>0</v>
+      </c>
+      <c r="IV2">
+        <v>0</v>
+      </c>
+      <c r="IW2">
+        <v>0</v>
+      </c>
+      <c r="IX2">
+        <v>0</v>
+      </c>
+      <c r="IY2">
+        <v>0</v>
+      </c>
+      <c r="IZ2">
+        <v>0</v>
+      </c>
+      <c r="JA2">
+        <v>0</v>
+      </c>
+      <c r="JB2">
+        <v>0</v>
+      </c>
+      <c r="JC2">
+        <v>0</v>
+      </c>
+      <c r="JD2">
+        <v>0</v>
+      </c>
+      <c r="JE2">
+        <v>0</v>
+      </c>
+      <c r="JF2">
+        <v>0</v>
+      </c>
+      <c r="JG2">
+        <v>0</v>
+      </c>
+      <c r="JH2">
+        <v>0</v>
+      </c>
+      <c r="JI2">
+        <v>0</v>
+      </c>
+      <c r="JJ2">
+        <v>0</v>
+      </c>
+      <c r="JK2">
+        <v>0</v>
+      </c>
+      <c r="JL2">
+        <v>0</v>
+      </c>
+      <c r="JM2">
+        <v>0</v>
+      </c>
+      <c r="JN2">
+        <v>0</v>
+      </c>
+      <c r="JO2">
+        <v>0</v>
+      </c>
+      <c r="JP2">
+        <v>0</v>
+      </c>
+      <c r="JQ2">
+        <v>0</v>
+      </c>
+      <c r="JR2">
+        <v>0</v>
+      </c>
+      <c r="JS2">
+        <v>0</v>
+      </c>
+      <c r="JT2">
+        <v>0</v>
+      </c>
+      <c r="JU2">
+        <v>0</v>
+      </c>
+      <c r="JV2">
+        <v>0</v>
+      </c>
+      <c r="JW2">
+        <v>0</v>
+      </c>
+      <c r="JX2">
+        <v>0</v>
+      </c>
+      <c r="JY2">
+        <v>0</v>
+      </c>
+      <c r="JZ2">
+        <v>0</v>
+      </c>
+      <c r="KA2">
+        <v>0</v>
+      </c>
+      <c r="KB2">
+        <v>0</v>
+      </c>
+      <c r="KC2">
+        <v>0</v>
+      </c>
+      <c r="KD2">
+        <v>0</v>
+      </c>
+      <c r="KE2">
+        <v>0</v>
+      </c>
+      <c r="KF2">
+        <v>0</v>
+      </c>
+      <c r="KG2">
+        <v>0</v>
+      </c>
+      <c r="KH2">
+        <v>0</v>
+      </c>
+      <c r="KI2">
+        <v>0</v>
+      </c>
+      <c r="KJ2">
+        <v>0</v>
+      </c>
+      <c r="KK2">
+        <v>0</v>
+      </c>
+      <c r="KL2">
+        <v>0</v>
+      </c>
+      <c r="KM2">
+        <v>0</v>
+      </c>
+      <c r="KN2">
+        <v>0</v>
+      </c>
+      <c r="KO2">
+        <v>0</v>
+      </c>
+      <c r="KP2">
+        <v>0</v>
+      </c>
+      <c r="KQ2">
+        <v>0</v>
+      </c>
+      <c r="KR2">
+        <v>0</v>
+      </c>
+      <c r="KS2">
+        <v>0</v>
+      </c>
+      <c r="KT2">
+        <v>0</v>
+      </c>
+      <c r="KU2">
+        <v>0</v>
+      </c>
+      <c r="KV2">
+        <v>0</v>
+      </c>
+      <c r="KW2">
+        <v>0</v>
+      </c>
+      <c r="KX2">
+        <v>0</v>
+      </c>
+      <c r="KY2">
+        <v>0</v>
+      </c>
+      <c r="KZ2">
+        <v>0</v>
+      </c>
+      <c r="LA2">
+        <v>0</v>
+      </c>
+      <c r="LB2">
+        <v>0</v>
+      </c>
+      <c r="LC2">
+        <v>0</v>
+      </c>
+      <c r="LD2">
+        <v>0</v>
+      </c>
+      <c r="LE2">
+        <v>0</v>
+      </c>
+      <c r="LF2">
+        <v>0</v>
+      </c>
+      <c r="LG2">
+        <v>0</v>
+      </c>
+      <c r="LH2">
+        <v>0</v>
+      </c>
+      <c r="LI2">
+        <v>0</v>
+      </c>
+      <c r="LJ2">
+        <v>0</v>
+      </c>
+      <c r="LK2">
+        <v>0</v>
+      </c>
+      <c r="LL2">
+        <v>0</v>
+      </c>
+      <c r="LM2">
+        <v>0</v>
+      </c>
+      <c r="LN2">
+        <v>0</v>
+      </c>
+      <c r="LO2">
+        <v>0</v>
+      </c>
+      <c r="LP2">
+        <v>0</v>
+      </c>
+      <c r="LQ2">
+        <v>0</v>
+      </c>
+      <c r="LR2">
+        <v>0</v>
+      </c>
+      <c r="LS2">
+        <v>0</v>
+      </c>
+      <c r="LT2">
+        <v>0</v>
+      </c>
+      <c r="LU2">
+        <v>0</v>
+      </c>
+      <c r="LV2">
+        <v>0</v>
+      </c>
+      <c r="LW2">
+        <v>0</v>
+      </c>
+      <c r="LX2">
+        <v>0</v>
+      </c>
+      <c r="LY2">
+        <v>0</v>
+      </c>
+      <c r="LZ2">
+        <v>0</v>
+      </c>
+      <c r="MA2">
+        <v>0</v>
+      </c>
+      <c r="MB2">
+        <v>0</v>
+      </c>
+      <c r="MC2">
+        <v>0</v>
+      </c>
+      <c r="MD2">
+        <v>0</v>
+      </c>
+      <c r="ME2">
+        <v>0</v>
+      </c>
+      <c r="MF2">
+        <v>0</v>
+      </c>
+      <c r="MG2">
+        <v>0</v>
+      </c>
+      <c r="MH2">
+        <v>0</v>
+      </c>
+      <c r="MI2">
+        <v>0</v>
+      </c>
+      <c r="MJ2">
+        <v>0</v>
+      </c>
+      <c r="MK2">
+        <v>0</v>
+      </c>
+      <c r="ML2">
+        <v>0</v>
+      </c>
+      <c r="MM2">
+        <v>0</v>
+      </c>
+      <c r="MN2">
+        <v>0</v>
+      </c>
+      <c r="MO2">
+        <v>0</v>
+      </c>
+      <c r="MP2">
+        <v>0</v>
+      </c>
+      <c r="MQ2">
+        <v>0</v>
+      </c>
+      <c r="MR2">
+        <v>0</v>
+      </c>
+      <c r="MS2">
+        <v>0</v>
+      </c>
+      <c r="MT2">
+        <v>0</v>
+      </c>
+      <c r="MU2">
+        <v>0</v>
+      </c>
+      <c r="MV2">
+        <v>0</v>
+      </c>
+      <c r="MW2">
+        <v>0</v>
+      </c>
+      <c r="MX2">
+        <v>0</v>
+      </c>
+      <c r="MY2">
+        <v>0</v>
+      </c>
+      <c r="MZ2">
+        <v>0</v>
+      </c>
+      <c r="NA2">
+        <v>0</v>
+      </c>
+      <c r="NB2">
+        <v>0</v>
+      </c>
+      <c r="NC2">
+        <v>0</v>
+      </c>
+      <c r="ND2">
+        <v>0</v>
+      </c>
+      <c r="NE2">
+        <v>0</v>
+      </c>
+      <c r="NF2">
+        <v>0</v>
+      </c>
+      <c r="NG2">
+        <v>0</v>
+      </c>
+      <c r="NH2">
+        <v>0</v>
+      </c>
+      <c r="NI2">
+        <v>0</v>
+      </c>
+      <c r="NJ2">
+        <v>0</v>
+      </c>
+      <c r="NK2">
+        <v>0</v>
+      </c>
+      <c r="NL2">
+        <v>0</v>
+      </c>
+      <c r="NM2">
+        <v>0</v>
+      </c>
+      <c r="NN2">
+        <v>0</v>
+      </c>
+      <c r="NO2">
+        <v>0</v>
+      </c>
+      <c r="NP2">
+        <v>0</v>
+      </c>
+      <c r="NQ2">
+        <v>0</v>
+      </c>
+      <c r="NR2">
+        <v>0</v>
+      </c>
+      <c r="NS2">
+        <v>0</v>
+      </c>
+      <c r="NT2">
+        <v>0</v>
+      </c>
+      <c r="NU2">
+        <v>0</v>
+      </c>
+      <c r="NV2">
+        <v>0</v>
+      </c>
+      <c r="NW2">
+        <v>0</v>
+      </c>
+      <c r="NX2">
+        <v>0</v>
+      </c>
+      <c r="NY2">
+        <v>0</v>
+      </c>
+      <c r="NZ2">
+        <v>0</v>
+      </c>
+      <c r="OA2">
+        <v>0</v>
+      </c>
+      <c r="OB2">
+        <v>0</v>
+      </c>
+      <c r="OC2">
+        <v>0</v>
+      </c>
+      <c r="OD2">
+        <v>0</v>
+      </c>
+      <c r="OE2">
+        <v>0</v>
+      </c>
+      <c r="OF2">
+        <v>0</v>
+      </c>
+      <c r="OG2">
+        <v>0</v>
+      </c>
+      <c r="OH2">
+        <v>0</v>
+      </c>
+      <c r="OI2">
+        <v>0</v>
+      </c>
+      <c r="OJ2">
+        <v>0</v>
+      </c>
+      <c r="OK2">
+        <v>0</v>
+      </c>
+      <c r="OL2">
+        <v>0</v>
+      </c>
+      <c r="OM2">
+        <v>0</v>
+      </c>
+      <c r="ON2">
+        <v>0</v>
+      </c>
+      <c r="OO2">
+        <v>0</v>
+      </c>
+      <c r="OP2">
+        <v>0</v>
+      </c>
+      <c r="OQ2">
+        <v>0</v>
+      </c>
+      <c r="OR2">
+        <v>0</v>
+      </c>
+      <c r="OS2">
+        <v>0</v>
+      </c>
+      <c r="OT2">
+        <v>0</v>
+      </c>
+      <c r="OU2">
+        <v>0</v>
+      </c>
+      <c r="OV2">
+        <v>0</v>
+      </c>
+      <c r="OW2">
+        <v>0</v>
+      </c>
+      <c r="OX2">
+        <v>0</v>
+      </c>
+      <c r="OY2">
+        <v>0</v>
+      </c>
+      <c r="OZ2">
+        <v>0</v>
+      </c>
+      <c r="PA2">
+        <v>0</v>
+      </c>
+      <c r="PB2">
+        <v>0</v>
+      </c>
+      <c r="PC2">
+        <v>0</v>
+      </c>
+      <c r="PD2">
+        <v>0</v>
+      </c>
+      <c r="PE2">
+        <v>0</v>
+      </c>
+      <c r="PF2">
+        <v>0</v>
+      </c>
+      <c r="PG2">
+        <v>0</v>
+      </c>
+      <c r="PH2">
+        <v>0</v>
+      </c>
+      <c r="PI2">
+        <v>0</v>
+      </c>
+      <c r="PJ2">
+        <v>0</v>
+      </c>
+      <c r="PK2">
+        <v>0</v>
+      </c>
+      <c r="PL2">
+        <v>0</v>
+      </c>
+      <c r="PM2">
+        <v>0</v>
+      </c>
+      <c r="PN2">
+        <v>0</v>
+      </c>
+      <c r="PO2">
+        <v>0</v>
+      </c>
+      <c r="PP2">
+        <v>0</v>
+      </c>
+      <c r="PQ2">
+        <v>0</v>
+      </c>
+      <c r="PR2">
+        <v>0</v>
+      </c>
+      <c r="PS2">
+        <v>0</v>
+      </c>
+      <c r="PT2">
+        <v>0</v>
+      </c>
+      <c r="PU2">
+        <v>0</v>
+      </c>
+      <c r="PV2">
+        <v>0</v>
+      </c>
+      <c r="PW2">
+        <v>0</v>
+      </c>
+      <c r="PX2">
+        <v>0</v>
+      </c>
+      <c r="PY2">
+        <v>0</v>
+      </c>
+      <c r="PZ2">
+        <v>0</v>
+      </c>
+      <c r="QA2">
+        <v>0</v>
+      </c>
+      <c r="QB2">
+        <v>0</v>
+      </c>
+      <c r="QC2">
+        <v>0</v>
+      </c>
+      <c r="QD2">
+        <v>0</v>
+      </c>
+      <c r="QE2">
+        <v>0</v>
+      </c>
+      <c r="QF2">
+        <v>0</v>
+      </c>
+      <c r="QG2">
+        <v>0</v>
+      </c>
+      <c r="QH2">
+        <v>0</v>
+      </c>
+      <c r="QI2">
+        <v>0</v>
+      </c>
+      <c r="QJ2">
+        <v>0</v>
+      </c>
+      <c r="QK2">
+        <v>0</v>
+      </c>
+      <c r="QL2">
+        <v>0</v>
+      </c>
+      <c r="QM2">
+        <v>0</v>
+      </c>
+      <c r="QN2">
+        <v>0</v>
+      </c>
+      <c r="QO2">
+        <v>0</v>
+      </c>
+      <c r="QP2">
+        <v>0</v>
+      </c>
+      <c r="QQ2">
+        <v>0</v>
+      </c>
+      <c r="QR2">
+        <v>0</v>
+      </c>
+      <c r="QS2">
+        <v>0</v>
+      </c>
+      <c r="QT2">
+        <v>0</v>
+      </c>
+      <c r="QU2">
+        <v>0</v>
+      </c>
+      <c r="QV2">
+        <v>0</v>
+      </c>
+      <c r="QW2">
+        <v>0</v>
+      </c>
+      <c r="QX2">
+        <v>0</v>
+      </c>
+      <c r="QY2">
+        <v>0</v>
+      </c>
+      <c r="QZ2">
+        <v>0</v>
+      </c>
+      <c r="RA2">
+        <v>0</v>
+      </c>
+      <c r="RB2">
+        <v>0</v>
+      </c>
+      <c r="RC2">
+        <v>0</v>
+      </c>
+      <c r="RD2">
+        <v>0</v>
+      </c>
+      <c r="RE2">
+        <v>0</v>
+      </c>
+      <c r="RF2">
+        <v>0</v>
+      </c>
+      <c r="RG2">
+        <v>0</v>
+      </c>
+      <c r="RH2">
+        <v>0</v>
+      </c>
+      <c r="RI2">
+        <v>0</v>
+      </c>
+      <c r="RJ2">
+        <v>0</v>
+      </c>
+      <c r="RK2">
+        <v>0</v>
+      </c>
+      <c r="RL2">
+        <v>0</v>
+      </c>
+      <c r="RM2">
+        <v>0</v>
+      </c>
+      <c r="RN2">
+        <v>0</v>
+      </c>
+      <c r="RO2">
+        <v>0</v>
+      </c>
+      <c r="RP2">
+        <v>0</v>
+      </c>
+      <c r="RQ2">
+        <v>0</v>
+      </c>
+      <c r="RR2">
+        <v>0</v>
+      </c>
+      <c r="RS2">
+        <v>0</v>
+      </c>
+      <c r="RT2">
+        <v>0</v>
+      </c>
+      <c r="RU2">
+        <v>0</v>
+      </c>
+      <c r="RV2">
+        <v>0</v>
+      </c>
+      <c r="RW2">
+        <v>0</v>
+      </c>
+      <c r="RX2">
+        <v>0</v>
+      </c>
+      <c r="RY2">
+        <v>0</v>
+      </c>
+      <c r="RZ2">
+        <v>0</v>
+      </c>
+      <c r="SA2">
+        <v>0</v>
+      </c>
+      <c r="SB2">
+        <v>0</v>
+      </c>
+      <c r="SC2">
+        <v>0</v>
+      </c>
+      <c r="SD2">
+        <v>0</v>
+      </c>
+      <c r="SE2">
+        <v>0</v>
+      </c>
+      <c r="SF2">
+        <v>0</v>
+      </c>
+      <c r="SG2">
+        <v>0</v>
+      </c>
+      <c r="SH2">
+        <v>0</v>
+      </c>
+      <c r="SI2">
+        <v>0</v>
+      </c>
+      <c r="SJ2">
+        <v>0</v>
+      </c>
+      <c r="SK2">
+        <v>0</v>
+      </c>
+      <c r="SL2">
+        <v>0</v>
+      </c>
+      <c r="SM2">
+        <v>0</v>
+      </c>
+      <c r="SN2">
+        <v>0</v>
+      </c>
+      <c r="SO2">
+        <v>0</v>
+      </c>
+      <c r="SP2">
+        <v>0</v>
+      </c>
+      <c r="SQ2">
+        <v>0</v>
+      </c>
+      <c r="SR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:224">
+    <row r="3" spans="1:512">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2423,28 +5015,28 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2456,22 +5048,22 @@
         <v>5</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3">
         <v>6</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z3">
         <v>8</v>
@@ -2480,594 +5072,1458 @@
         <v>9</v>
       </c>
       <c r="AB3">
+        <v>9</v>
+      </c>
+      <c r="AC3">
+        <v>9</v>
+      </c>
+      <c r="AD3">
         <v>10</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>10</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
+        <v>10</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <v>10</v>
+      </c>
+      <c r="AI3">
+        <v>10</v>
+      </c>
+      <c r="AJ3">
+        <v>11</v>
+      </c>
+      <c r="AK3">
+        <v>11</v>
+      </c>
+      <c r="AL3">
         <v>12</v>
       </c>
-      <c r="AE3">
+      <c r="AM3">
         <v>12</v>
       </c>
-      <c r="AF3">
+      <c r="AN3">
         <v>12</v>
       </c>
-      <c r="AG3">
+      <c r="AO3">
+        <v>12</v>
+      </c>
+      <c r="AP3">
+        <v>12</v>
+      </c>
+      <c r="AQ3">
+        <v>12</v>
+      </c>
+      <c r="AR3">
+        <v>12</v>
+      </c>
+      <c r="AS3">
+        <v>13</v>
+      </c>
+      <c r="AT3">
+        <v>13</v>
+      </c>
+      <c r="AU3">
+        <v>13</v>
+      </c>
+      <c r="AV3">
+        <v>13</v>
+      </c>
+      <c r="AW3">
+        <v>13</v>
+      </c>
+      <c r="AX3">
         <v>14</v>
       </c>
-      <c r="AH3">
+      <c r="AY3">
+        <v>14</v>
+      </c>
+      <c r="AZ3">
+        <v>14</v>
+      </c>
+      <c r="BA3">
+        <v>14</v>
+      </c>
+      <c r="BB3">
+        <v>14</v>
+      </c>
+      <c r="BC3">
+        <v>14</v>
+      </c>
+      <c r="BD3">
+        <v>14</v>
+      </c>
+      <c r="BE3">
+        <v>14</v>
+      </c>
+      <c r="BF3">
         <v>15</v>
       </c>
-      <c r="AI3">
+      <c r="BG3">
+        <v>17</v>
+      </c>
+      <c r="BH3">
+        <v>17</v>
+      </c>
+      <c r="BI3">
+        <v>17</v>
+      </c>
+      <c r="BJ3">
+        <v>17</v>
+      </c>
+      <c r="BK3">
+        <v>18</v>
+      </c>
+      <c r="BL3">
+        <v>18</v>
+      </c>
+      <c r="BM3">
+        <v>19</v>
+      </c>
+      <c r="BN3">
+        <v>19</v>
+      </c>
+      <c r="BO3">
+        <v>20</v>
+      </c>
+      <c r="BP3">
+        <v>20</v>
+      </c>
+      <c r="BQ3">
+        <v>20</v>
+      </c>
+      <c r="BR3">
+        <v>20</v>
+      </c>
+      <c r="BS3">
+        <v>20</v>
+      </c>
+      <c r="BT3">
+        <v>20</v>
+      </c>
+      <c r="BU3">
+        <v>20</v>
+      </c>
+      <c r="BV3">
+        <v>21</v>
+      </c>
+      <c r="BW3">
+        <v>21</v>
+      </c>
+      <c r="BX3">
+        <v>21</v>
+      </c>
+      <c r="BY3">
+        <v>21</v>
+      </c>
+      <c r="BZ3">
+        <v>22</v>
+      </c>
+      <c r="CA3">
+        <v>24</v>
+      </c>
+      <c r="CB3">
+        <v>24</v>
+      </c>
+      <c r="CC3">
+        <v>25</v>
+      </c>
+      <c r="CD3">
+        <v>25</v>
+      </c>
+      <c r="CE3">
+        <v>26</v>
+      </c>
+      <c r="CF3">
+        <v>26</v>
+      </c>
+      <c r="CG3">
+        <v>26</v>
+      </c>
+      <c r="CH3">
+        <v>26</v>
+      </c>
+      <c r="CI3">
+        <v>26</v>
+      </c>
+      <c r="CJ3">
+        <v>27</v>
+      </c>
+      <c r="CK3">
+        <v>27</v>
+      </c>
+      <c r="CL3">
+        <v>27</v>
+      </c>
+      <c r="CM3">
+        <v>27</v>
+      </c>
+      <c r="CN3">
+        <v>29</v>
+      </c>
+      <c r="CO3">
+        <v>29</v>
+      </c>
+      <c r="CP3">
+        <v>29</v>
+      </c>
+      <c r="CQ3">
+        <v>29</v>
+      </c>
+      <c r="CR3">
+        <v>30</v>
+      </c>
+      <c r="CS3">
+        <v>30</v>
+      </c>
+      <c r="CT3">
+        <v>30</v>
+      </c>
+      <c r="CU3">
+        <v>30</v>
+      </c>
+      <c r="CV3">
+        <v>30</v>
+      </c>
+      <c r="CW3">
+        <v>30</v>
+      </c>
+      <c r="CX3">
+        <v>30</v>
+      </c>
+      <c r="CY3">
+        <v>30</v>
+      </c>
+      <c r="CZ3">
+        <v>30</v>
+      </c>
+      <c r="DA3">
+        <v>30</v>
+      </c>
+      <c r="DB3">
+        <v>30</v>
+      </c>
+      <c r="DC3">
+        <v>30</v>
+      </c>
+      <c r="DD3">
+        <v>30</v>
+      </c>
+      <c r="DE3">
+        <v>30</v>
+      </c>
+      <c r="DF3">
+        <v>30</v>
+      </c>
+      <c r="DG3">
+        <v>30</v>
+      </c>
+      <c r="DH3">
+        <v>30</v>
+      </c>
+      <c r="DI3">
+        <v>30</v>
+      </c>
+      <c r="DJ3">
+        <v>30</v>
+      </c>
+      <c r="DK3">
+        <v>31</v>
+      </c>
+      <c r="DL3">
+        <v>32</v>
+      </c>
+      <c r="DM3">
+        <v>32</v>
+      </c>
+      <c r="DN3">
+        <v>32</v>
+      </c>
+      <c r="DO3">
+        <v>33</v>
+      </c>
+      <c r="DP3">
+        <v>33</v>
+      </c>
+      <c r="DQ3">
+        <v>33</v>
+      </c>
+      <c r="DR3">
+        <v>33</v>
+      </c>
+      <c r="DS3">
+        <v>33</v>
+      </c>
+      <c r="DT3">
+        <v>33</v>
+      </c>
+      <c r="DU3">
+        <v>36</v>
+      </c>
+      <c r="DV3">
+        <v>36</v>
+      </c>
+      <c r="DW3">
+        <v>35</v>
+      </c>
+      <c r="DX3">
+        <v>35</v>
+      </c>
+      <c r="DY3">
+        <v>36</v>
+      </c>
+      <c r="DZ3">
+        <v>34</v>
+      </c>
+      <c r="EA3">
+        <v>34</v>
+      </c>
+      <c r="EB3">
+        <v>34</v>
+      </c>
+      <c r="EC3">
+        <v>34</v>
+      </c>
+      <c r="ED3">
+        <v>34</v>
+      </c>
+      <c r="EE3">
+        <v>34</v>
+      </c>
+      <c r="EF3">
+        <v>33</v>
+      </c>
+      <c r="EG3">
+        <v>32</v>
+      </c>
+      <c r="EH3">
+        <v>32</v>
+      </c>
+      <c r="EI3">
+        <v>32</v>
+      </c>
+      <c r="EJ3">
+        <v>35</v>
+      </c>
+      <c r="EK3">
+        <v>34</v>
+      </c>
+      <c r="EL3">
+        <v>35</v>
+      </c>
+      <c r="EM3">
+        <v>36</v>
+      </c>
+      <c r="EN3">
+        <v>36</v>
+      </c>
+      <c r="EO3">
+        <v>36</v>
+      </c>
+      <c r="EP3">
+        <v>35</v>
+      </c>
+      <c r="EQ3">
+        <v>34</v>
+      </c>
+      <c r="ER3">
+        <v>35</v>
+      </c>
+      <c r="ES3">
+        <v>36</v>
+      </c>
+      <c r="ET3">
+        <v>35</v>
+      </c>
+      <c r="EU3">
+        <v>35</v>
+      </c>
+      <c r="EV3">
+        <v>35</v>
+      </c>
+      <c r="EW3">
+        <v>35</v>
+      </c>
+      <c r="EX3">
+        <v>35</v>
+      </c>
+      <c r="EY3">
+        <v>35</v>
+      </c>
+      <c r="EZ3">
+        <v>34</v>
+      </c>
+      <c r="FA3">
+        <v>34</v>
+      </c>
+      <c r="FB3">
+        <v>33</v>
+      </c>
+      <c r="FC3">
+        <v>33</v>
+      </c>
+      <c r="FD3">
+        <v>33</v>
+      </c>
+      <c r="FE3">
+        <v>33</v>
+      </c>
+      <c r="FF3">
+        <v>33</v>
+      </c>
+      <c r="FG3">
+        <v>33</v>
+      </c>
+      <c r="FH3">
+        <v>34</v>
+      </c>
+      <c r="FI3">
+        <v>33</v>
+      </c>
+      <c r="FJ3">
+        <v>33</v>
+      </c>
+      <c r="FK3">
+        <v>34</v>
+      </c>
+      <c r="FL3">
+        <v>34</v>
+      </c>
+      <c r="FM3">
+        <v>35</v>
+      </c>
+      <c r="FN3">
+        <v>36</v>
+      </c>
+      <c r="FO3">
+        <v>36</v>
+      </c>
+      <c r="FP3">
+        <v>36</v>
+      </c>
+      <c r="FQ3">
+        <v>35</v>
+      </c>
+      <c r="FR3">
+        <v>35</v>
+      </c>
+      <c r="FS3">
+        <v>35</v>
+      </c>
+      <c r="FT3">
+        <v>35</v>
+      </c>
+      <c r="FU3">
+        <v>35</v>
+      </c>
+      <c r="FV3">
+        <v>35</v>
+      </c>
+      <c r="FW3">
+        <v>35</v>
+      </c>
+      <c r="FX3">
+        <v>36</v>
+      </c>
+      <c r="FY3">
+        <v>36</v>
+      </c>
+      <c r="FZ3">
+        <v>35</v>
+      </c>
+      <c r="GA3">
+        <v>35</v>
+      </c>
+      <c r="GB3">
+        <v>35</v>
+      </c>
+      <c r="GC3">
+        <v>35</v>
+      </c>
+      <c r="GD3">
+        <v>35</v>
+      </c>
+      <c r="GE3">
+        <v>34</v>
+      </c>
+      <c r="GF3">
+        <v>34</v>
+      </c>
+      <c r="GG3">
+        <v>34</v>
+      </c>
+      <c r="GH3">
+        <v>34</v>
+      </c>
+      <c r="GI3">
+        <v>35</v>
+      </c>
+      <c r="GJ3">
+        <v>37</v>
+      </c>
+      <c r="GK3">
+        <v>37</v>
+      </c>
+      <c r="GL3">
+        <v>36</v>
+      </c>
+      <c r="GM3">
+        <v>36</v>
+      </c>
+      <c r="GN3">
+        <v>38</v>
+      </c>
+      <c r="GO3">
+        <v>39</v>
+      </c>
+      <c r="GP3">
+        <v>39</v>
+      </c>
+      <c r="GQ3">
+        <v>37</v>
+      </c>
+      <c r="GR3">
+        <v>37</v>
+      </c>
+      <c r="GS3">
+        <v>37</v>
+      </c>
+      <c r="GT3">
+        <v>38</v>
+      </c>
+      <c r="GU3">
+        <v>38</v>
+      </c>
+      <c r="GV3">
+        <v>38</v>
+      </c>
+      <c r="GW3">
+        <v>38</v>
+      </c>
+      <c r="GX3">
+        <v>38</v>
+      </c>
+      <c r="GY3">
+        <v>38</v>
+      </c>
+      <c r="GZ3">
+        <v>37</v>
+      </c>
+      <c r="HA3">
+        <v>37</v>
+      </c>
+      <c r="HB3">
+        <v>39</v>
+      </c>
+      <c r="HC3">
+        <v>40</v>
+      </c>
+      <c r="HD3">
+        <v>40</v>
+      </c>
+      <c r="HE3">
+        <v>40</v>
+      </c>
+      <c r="HF3">
+        <v>40</v>
+      </c>
+      <c r="HG3">
+        <v>39</v>
+      </c>
+      <c r="HH3">
+        <v>38</v>
+      </c>
+      <c r="HI3">
+        <v>39</v>
+      </c>
+      <c r="HJ3">
+        <v>39</v>
+      </c>
+      <c r="HK3">
+        <v>39</v>
+      </c>
+      <c r="HL3">
+        <v>39</v>
+      </c>
+      <c r="HM3">
+        <v>39</v>
+      </c>
+      <c r="HN3">
+        <v>39</v>
+      </c>
+      <c r="HO3">
+        <v>39</v>
+      </c>
+      <c r="HP3">
+        <v>40</v>
+      </c>
+      <c r="HQ3">
+        <v>40</v>
+      </c>
+      <c r="HR3">
+        <v>40</v>
+      </c>
+      <c r="HS3">
+        <v>40</v>
+      </c>
+      <c r="HT3">
+        <v>40</v>
+      </c>
+      <c r="HU3">
+        <v>43</v>
+      </c>
+      <c r="HV3">
+        <v>43</v>
+      </c>
+      <c r="HW3">
+        <v>43</v>
+      </c>
+      <c r="HX3">
+        <v>43</v>
+      </c>
+      <c r="HY3">
+        <v>43</v>
+      </c>
+      <c r="HZ3">
+        <v>43</v>
+      </c>
+      <c r="IA3">
+        <v>42</v>
+      </c>
+      <c r="IB3">
+        <v>41</v>
+      </c>
+      <c r="IC3">
+        <v>42</v>
+      </c>
+      <c r="ID3">
+        <v>42</v>
+      </c>
+      <c r="IE3">
+        <v>41</v>
+      </c>
+      <c r="IF3">
+        <v>41</v>
+      </c>
+      <c r="IG3">
+        <v>41</v>
+      </c>
+      <c r="IH3">
+        <v>41</v>
+      </c>
+      <c r="II3">
+        <v>41</v>
+      </c>
+      <c r="IJ3">
+        <v>42</v>
+      </c>
+      <c r="IK3">
+        <v>40</v>
+      </c>
+      <c r="IL3">
+        <v>41</v>
+      </c>
+      <c r="IM3">
+        <v>41</v>
+      </c>
+      <c r="IN3">
+        <v>41</v>
+      </c>
+      <c r="IO3">
+        <v>40</v>
+      </c>
+      <c r="IP3">
+        <v>41</v>
+      </c>
+      <c r="IQ3">
+        <v>41</v>
+      </c>
+      <c r="IR3">
+        <v>42</v>
+      </c>
+      <c r="IS3">
+        <v>42</v>
+      </c>
+      <c r="IT3">
+        <v>42</v>
+      </c>
+      <c r="IU3">
+        <v>42</v>
+      </c>
+      <c r="IV3">
+        <v>42</v>
+      </c>
+      <c r="IW3">
+        <v>44</v>
+      </c>
+      <c r="IX3">
+        <v>44</v>
+      </c>
+      <c r="IY3">
+        <v>44</v>
+      </c>
+      <c r="IZ3">
+        <v>42</v>
+      </c>
+      <c r="JA3">
+        <v>42</v>
+      </c>
+      <c r="JB3">
+        <v>41</v>
+      </c>
+      <c r="JC3">
+        <v>40</v>
+      </c>
+      <c r="JD3">
+        <v>40</v>
+      </c>
+      <c r="JE3">
+        <v>40</v>
+      </c>
+      <c r="JF3">
+        <v>40</v>
+      </c>
+      <c r="JG3">
+        <v>40</v>
+      </c>
+      <c r="JH3">
+        <v>39</v>
+      </c>
+      <c r="JI3">
+        <v>38</v>
+      </c>
+      <c r="JJ3">
+        <v>38</v>
+      </c>
+      <c r="JK3">
+        <v>38</v>
+      </c>
+      <c r="JL3">
+        <v>38</v>
+      </c>
+      <c r="JM3">
+        <v>38</v>
+      </c>
+      <c r="JN3">
+        <v>38</v>
+      </c>
+      <c r="JO3">
+        <v>39</v>
+      </c>
+      <c r="JP3">
+        <v>39</v>
+      </c>
+      <c r="JQ3">
+        <v>39</v>
+      </c>
+      <c r="JR3">
+        <v>39</v>
+      </c>
+      <c r="JS3">
+        <v>40</v>
+      </c>
+      <c r="JT3">
+        <v>40</v>
+      </c>
+      <c r="JU3">
+        <v>40</v>
+      </c>
+      <c r="JV3">
+        <v>40</v>
+      </c>
+      <c r="JW3">
+        <v>41</v>
+      </c>
+      <c r="JX3">
+        <v>40</v>
+      </c>
+      <c r="JY3">
+        <v>40</v>
+      </c>
+      <c r="JZ3">
+        <v>40</v>
+      </c>
+      <c r="KA3">
+        <v>42</v>
+      </c>
+      <c r="KB3">
+        <v>42</v>
+      </c>
+      <c r="KC3">
+        <v>41</v>
+      </c>
+      <c r="KD3">
+        <v>40</v>
+      </c>
+      <c r="KE3">
+        <v>40</v>
+      </c>
+      <c r="KF3">
+        <v>40</v>
+      </c>
+      <c r="KG3">
+        <v>40</v>
+      </c>
+      <c r="KH3">
+        <v>41</v>
+      </c>
+      <c r="KI3">
+        <v>41</v>
+      </c>
+      <c r="KJ3">
+        <v>41</v>
+      </c>
+      <c r="KK3">
+        <v>42</v>
+      </c>
+      <c r="KL3">
+        <v>41</v>
+      </c>
+      <c r="KM3">
+        <v>39</v>
+      </c>
+      <c r="KN3">
+        <v>39</v>
+      </c>
+      <c r="KO3">
+        <v>39</v>
+      </c>
+      <c r="KP3">
+        <v>39</v>
+      </c>
+      <c r="KQ3">
+        <v>39</v>
+      </c>
+      <c r="KR3">
+        <v>40</v>
+      </c>
+      <c r="KS3">
+        <v>39</v>
+      </c>
+      <c r="KT3">
+        <v>40</v>
+      </c>
+      <c r="KU3">
+        <v>41</v>
+      </c>
+      <c r="KV3">
+        <v>42</v>
+      </c>
+      <c r="KW3">
+        <v>42</v>
+      </c>
+      <c r="KX3">
+        <v>42</v>
+      </c>
+      <c r="KY3">
+        <v>41</v>
+      </c>
+      <c r="KZ3">
+        <v>39</v>
+      </c>
+      <c r="LA3">
+        <v>39</v>
+      </c>
+      <c r="LB3">
+        <v>39</v>
+      </c>
+      <c r="LC3">
+        <v>40</v>
+      </c>
+      <c r="LD3">
+        <v>38</v>
+      </c>
+      <c r="LE3">
+        <v>36</v>
+      </c>
+      <c r="LF3">
+        <v>37</v>
+      </c>
+      <c r="LG3">
+        <v>37</v>
+      </c>
+      <c r="LH3">
+        <v>36</v>
+      </c>
+      <c r="LI3">
+        <v>36</v>
+      </c>
+      <c r="LJ3">
+        <v>35</v>
+      </c>
+      <c r="LK3">
+        <v>34</v>
+      </c>
+      <c r="LL3">
+        <v>35</v>
+      </c>
+      <c r="LM3">
+        <v>35</v>
+      </c>
+      <c r="LN3">
+        <v>35</v>
+      </c>
+      <c r="LO3">
+        <v>35</v>
+      </c>
+      <c r="LP3">
+        <v>35</v>
+      </c>
+      <c r="LQ3">
+        <v>36</v>
+      </c>
+      <c r="LR3">
+        <v>34</v>
+      </c>
+      <c r="LS3">
+        <v>33</v>
+      </c>
+      <c r="LT3">
+        <v>32</v>
+      </c>
+      <c r="LU3">
+        <v>32</v>
+      </c>
+      <c r="LV3">
+        <v>32</v>
+      </c>
+      <c r="LW3">
+        <v>32</v>
+      </c>
+      <c r="LX3">
+        <v>32</v>
+      </c>
+      <c r="LY3">
+        <v>31</v>
+      </c>
+      <c r="LZ3">
+        <v>31</v>
+      </c>
+      <c r="MA3">
+        <v>31</v>
+      </c>
+      <c r="MB3">
+        <v>31</v>
+      </c>
+      <c r="MC3">
+        <v>31</v>
+      </c>
+      <c r="MD3">
+        <v>31</v>
+      </c>
+      <c r="ME3">
+        <v>31</v>
+      </c>
+      <c r="MF3">
+        <v>30</v>
+      </c>
+      <c r="MG3">
+        <v>30</v>
+      </c>
+      <c r="MH3">
+        <v>30</v>
+      </c>
+      <c r="MI3">
+        <v>30</v>
+      </c>
+      <c r="MJ3">
+        <v>29</v>
+      </c>
+      <c r="MK3">
+        <v>27</v>
+      </c>
+      <c r="ML3">
+        <v>27</v>
+      </c>
+      <c r="MM3">
+        <v>27</v>
+      </c>
+      <c r="MN3">
+        <v>27</v>
+      </c>
+      <c r="MO3">
+        <v>27</v>
+      </c>
+      <c r="MP3">
+        <v>27</v>
+      </c>
+      <c r="MQ3">
+        <v>27</v>
+      </c>
+      <c r="MR3">
+        <v>27</v>
+      </c>
+      <c r="MS3">
+        <v>26</v>
+      </c>
+      <c r="MT3">
+        <v>26</v>
+      </c>
+      <c r="MU3">
+        <v>26</v>
+      </c>
+      <c r="MV3">
+        <v>26</v>
+      </c>
+      <c r="MW3">
+        <v>26</v>
+      </c>
+      <c r="MX3">
+        <v>26</v>
+      </c>
+      <c r="MY3">
+        <v>26</v>
+      </c>
+      <c r="MZ3">
+        <v>25</v>
+      </c>
+      <c r="NA3">
+        <v>25</v>
+      </c>
+      <c r="NB3">
+        <v>24</v>
+      </c>
+      <c r="NC3">
+        <v>24</v>
+      </c>
+      <c r="ND3">
+        <v>23</v>
+      </c>
+      <c r="NE3">
+        <v>23</v>
+      </c>
+      <c r="NF3">
+        <v>22</v>
+      </c>
+      <c r="NG3">
+        <v>21</v>
+      </c>
+      <c r="NH3">
+        <v>21</v>
+      </c>
+      <c r="NI3">
+        <v>21</v>
+      </c>
+      <c r="NJ3">
+        <v>21</v>
+      </c>
+      <c r="NK3">
+        <v>21</v>
+      </c>
+      <c r="NL3">
+        <v>21</v>
+      </c>
+      <c r="NM3">
+        <v>19</v>
+      </c>
+      <c r="NN3">
+        <v>19</v>
+      </c>
+      <c r="NO3">
+        <v>19</v>
+      </c>
+      <c r="NP3">
+        <v>18</v>
+      </c>
+      <c r="NQ3">
+        <v>18</v>
+      </c>
+      <c r="NR3">
+        <v>18</v>
+      </c>
+      <c r="NS3">
+        <v>19</v>
+      </c>
+      <c r="NT3">
+        <v>19</v>
+      </c>
+      <c r="NU3">
+        <v>18</v>
+      </c>
+      <c r="NV3">
+        <v>18</v>
+      </c>
+      <c r="NW3">
+        <v>18</v>
+      </c>
+      <c r="NX3">
+        <v>18</v>
+      </c>
+      <c r="NY3">
+        <v>18</v>
+      </c>
+      <c r="NZ3">
+        <v>18</v>
+      </c>
+      <c r="OA3">
+        <v>18</v>
+      </c>
+      <c r="OB3">
+        <v>18</v>
+      </c>
+      <c r="OC3">
+        <v>18</v>
+      </c>
+      <c r="OD3">
+        <v>18</v>
+      </c>
+      <c r="OE3">
+        <v>17</v>
+      </c>
+      <c r="OF3">
+        <v>17</v>
+      </c>
+      <c r="OG3">
+        <v>17</v>
+      </c>
+      <c r="OH3">
+        <v>17</v>
+      </c>
+      <c r="OI3">
+        <v>16</v>
+      </c>
+      <c r="OJ3">
+        <v>16</v>
+      </c>
+      <c r="OK3">
+        <v>16</v>
+      </c>
+      <c r="OL3">
+        <v>16</v>
+      </c>
+      <c r="OM3">
         <v>15</v>
       </c>
-      <c r="AJ3">
+      <c r="ON3">
         <v>15</v>
       </c>
-      <c r="AK3">
-        <v>16</v>
-      </c>
-      <c r="AL3">
-        <v>16</v>
-      </c>
-      <c r="AM3">
-        <v>16</v>
-      </c>
-      <c r="AN3">
-        <v>16</v>
-      </c>
-      <c r="AO3">
-        <v>19</v>
-      </c>
-      <c r="AP3">
-        <v>20</v>
-      </c>
-      <c r="AQ3">
-        <v>20</v>
-      </c>
-      <c r="AR3">
-        <v>20</v>
-      </c>
-      <c r="AS3">
-        <v>20</v>
-      </c>
-      <c r="AT3">
-        <v>20</v>
-      </c>
-      <c r="AU3">
-        <v>20</v>
-      </c>
-      <c r="AV3">
-        <v>20</v>
-      </c>
-      <c r="AW3">
-        <v>20</v>
-      </c>
-      <c r="AX3">
-        <v>20</v>
-      </c>
-      <c r="AY3">
-        <v>20</v>
-      </c>
-      <c r="AZ3">
-        <v>20</v>
-      </c>
-      <c r="BA3">
-        <v>20</v>
-      </c>
-      <c r="BB3">
-        <v>20</v>
-      </c>
-      <c r="BC3">
-        <v>22</v>
-      </c>
-      <c r="BD3">
-        <v>23</v>
-      </c>
-      <c r="BE3">
-        <v>24</v>
-      </c>
-      <c r="BF3">
-        <v>24</v>
-      </c>
-      <c r="BG3">
-        <v>24</v>
-      </c>
-      <c r="BH3">
-        <v>24</v>
-      </c>
-      <c r="BI3">
-        <v>24</v>
-      </c>
-      <c r="BJ3">
-        <v>24</v>
-      </c>
-      <c r="BK3">
-        <v>24</v>
-      </c>
-      <c r="BL3">
-        <v>25</v>
-      </c>
-      <c r="BM3">
-        <v>26</v>
-      </c>
-      <c r="BN3">
-        <v>27</v>
-      </c>
-      <c r="BO3">
-        <v>28</v>
-      </c>
-      <c r="BP3">
-        <v>29</v>
-      </c>
-      <c r="BQ3">
-        <v>30</v>
-      </c>
-      <c r="BR3">
-        <v>30</v>
-      </c>
-      <c r="BS3">
-        <v>30</v>
-      </c>
-      <c r="BT3">
-        <v>30</v>
-      </c>
-      <c r="BU3">
-        <v>31</v>
-      </c>
-      <c r="BV3">
-        <v>31</v>
-      </c>
-      <c r="BW3">
-        <v>31</v>
-      </c>
-      <c r="BX3">
-        <v>31</v>
-      </c>
-      <c r="BY3">
-        <v>31</v>
-      </c>
-      <c r="BZ3">
-        <v>31</v>
-      </c>
-      <c r="CA3">
-        <v>33</v>
-      </c>
-      <c r="CB3">
-        <v>33</v>
-      </c>
-      <c r="CC3">
-        <v>34</v>
-      </c>
-      <c r="CD3">
-        <v>34</v>
-      </c>
-      <c r="CE3">
-        <v>35</v>
-      </c>
-      <c r="CF3">
-        <v>36</v>
-      </c>
-      <c r="CG3">
-        <v>36</v>
-      </c>
-      <c r="CH3">
-        <v>36</v>
-      </c>
-      <c r="CI3">
-        <v>36</v>
-      </c>
-      <c r="CJ3">
-        <v>36</v>
-      </c>
-      <c r="CK3">
-        <v>36</v>
-      </c>
-      <c r="CL3">
-        <v>37</v>
-      </c>
-      <c r="CM3">
-        <v>38</v>
-      </c>
-      <c r="CN3">
-        <v>38</v>
-      </c>
-      <c r="CO3">
-        <v>38</v>
-      </c>
-      <c r="CP3">
-        <v>38</v>
-      </c>
-      <c r="CQ3">
-        <v>38</v>
-      </c>
-      <c r="CR3">
-        <v>41</v>
-      </c>
-      <c r="CS3">
-        <v>41</v>
-      </c>
-      <c r="CT3">
-        <v>41</v>
-      </c>
-      <c r="CU3">
-        <v>41</v>
-      </c>
-      <c r="CV3">
-        <v>41</v>
-      </c>
-      <c r="CW3">
-        <v>41</v>
-      </c>
-      <c r="CX3">
-        <v>41</v>
-      </c>
-      <c r="CY3">
-        <v>41</v>
-      </c>
-      <c r="CZ3">
-        <v>41</v>
-      </c>
-      <c r="DA3">
-        <v>41</v>
-      </c>
-      <c r="DB3">
-        <v>41</v>
-      </c>
-      <c r="DC3">
-        <v>41</v>
-      </c>
-      <c r="DD3">
-        <v>41</v>
-      </c>
-      <c r="DE3">
-        <v>41</v>
-      </c>
-      <c r="DF3">
-        <v>41</v>
-      </c>
-      <c r="DG3">
-        <v>41</v>
-      </c>
-      <c r="DH3">
-        <v>41</v>
-      </c>
-      <c r="DI3">
-        <v>41</v>
-      </c>
-      <c r="DJ3">
-        <v>41</v>
-      </c>
-      <c r="DK3">
-        <v>41</v>
-      </c>
-      <c r="DL3">
-        <v>41</v>
-      </c>
-      <c r="DM3">
-        <v>41</v>
-      </c>
-      <c r="DN3">
-        <v>41</v>
-      </c>
-      <c r="DO3">
-        <v>41</v>
-      </c>
-      <c r="DP3">
-        <v>41</v>
-      </c>
-      <c r="DQ3">
-        <v>41</v>
-      </c>
-      <c r="DR3">
-        <v>41</v>
-      </c>
-      <c r="DS3">
-        <v>41</v>
-      </c>
-      <c r="DT3">
-        <v>41</v>
-      </c>
-      <c r="DU3">
-        <v>41</v>
-      </c>
-      <c r="DV3">
-        <v>40</v>
-      </c>
-      <c r="DW3">
-        <v>40</v>
-      </c>
-      <c r="DX3">
-        <v>39</v>
-      </c>
-      <c r="DY3">
-        <v>37</v>
-      </c>
-      <c r="DZ3">
-        <v>36</v>
-      </c>
-      <c r="EA3">
-        <v>36</v>
-      </c>
-      <c r="EB3">
-        <v>36</v>
-      </c>
-      <c r="EC3">
-        <v>36</v>
-      </c>
-      <c r="ED3">
-        <v>36</v>
-      </c>
-      <c r="EE3">
-        <v>36</v>
-      </c>
-      <c r="EF3">
-        <v>36</v>
-      </c>
-      <c r="EG3">
-        <v>36</v>
-      </c>
-      <c r="EH3">
-        <v>35</v>
-      </c>
-      <c r="EI3">
-        <v>35</v>
-      </c>
-      <c r="EJ3">
-        <v>33</v>
-      </c>
-      <c r="EK3">
-        <v>33</v>
-      </c>
-      <c r="EL3">
-        <v>33</v>
-      </c>
-      <c r="EM3">
-        <v>33</v>
-      </c>
-      <c r="EN3">
-        <v>33</v>
-      </c>
-      <c r="EO3">
-        <v>33</v>
-      </c>
-      <c r="EP3">
-        <v>32</v>
-      </c>
-      <c r="EQ3">
-        <v>31</v>
-      </c>
-      <c r="ER3">
-        <v>30</v>
-      </c>
-      <c r="ES3">
-        <v>29</v>
-      </c>
-      <c r="ET3">
-        <v>29</v>
-      </c>
-      <c r="EU3">
-        <v>27</v>
-      </c>
-      <c r="EV3">
-        <v>26</v>
-      </c>
-      <c r="EW3">
-        <v>26</v>
-      </c>
-      <c r="EX3">
-        <v>26</v>
-      </c>
-      <c r="EY3">
-        <v>25</v>
-      </c>
-      <c r="EZ3">
-        <v>25</v>
-      </c>
-      <c r="FA3">
-        <v>25</v>
-      </c>
-      <c r="FB3">
-        <v>25</v>
-      </c>
-      <c r="FC3">
-        <v>23</v>
-      </c>
-      <c r="FD3">
-        <v>22</v>
-      </c>
-      <c r="FE3">
-        <v>21</v>
-      </c>
-      <c r="FF3">
-        <v>21</v>
-      </c>
-      <c r="FG3">
-        <v>21</v>
-      </c>
-      <c r="FH3">
-        <v>21</v>
-      </c>
-      <c r="FI3">
-        <v>21</v>
-      </c>
-      <c r="FJ3">
-        <v>21</v>
-      </c>
-      <c r="FK3">
-        <v>21</v>
-      </c>
-      <c r="FL3">
-        <v>21</v>
-      </c>
-      <c r="FM3">
-        <v>21</v>
-      </c>
-      <c r="FN3">
-        <v>21</v>
-      </c>
-      <c r="FO3">
-        <v>21</v>
-      </c>
-      <c r="FP3">
-        <v>21</v>
-      </c>
-      <c r="FQ3">
-        <v>21</v>
-      </c>
-      <c r="FR3">
-        <v>18</v>
-      </c>
-      <c r="FS3">
-        <v>18</v>
-      </c>
-      <c r="FT3">
-        <v>17</v>
-      </c>
-      <c r="FU3">
-        <v>17</v>
-      </c>
-      <c r="FV3">
-        <v>17</v>
-      </c>
-      <c r="FW3">
-        <v>17</v>
-      </c>
-      <c r="FX3">
-        <v>17</v>
-      </c>
-      <c r="FY3">
-        <v>17</v>
-      </c>
-      <c r="FZ3">
-        <v>16</v>
-      </c>
-      <c r="GA3">
-        <v>16</v>
-      </c>
-      <c r="GB3">
-        <v>14</v>
-      </c>
-      <c r="GC3">
-        <v>14</v>
-      </c>
-      <c r="GD3">
+      <c r="OO3">
+        <v>15</v>
+      </c>
+      <c r="OP3">
+        <v>15</v>
+      </c>
+      <c r="OQ3">
         <v>12</v>
       </c>
-      <c r="GE3">
+      <c r="OR3">
         <v>12</v>
       </c>
-      <c r="GF3">
+      <c r="OS3">
+        <v>12</v>
+      </c>
+      <c r="OT3">
+        <v>12</v>
+      </c>
+      <c r="OU3">
+        <v>12</v>
+      </c>
+      <c r="OV3">
+        <v>12</v>
+      </c>
+      <c r="OW3">
+        <v>12</v>
+      </c>
+      <c r="OX3">
         <v>11</v>
       </c>
-      <c r="GG3">
+      <c r="OY3">
         <v>11</v>
       </c>
-      <c r="GH3">
+      <c r="OZ3">
         <v>11</v>
       </c>
-      <c r="GI3">
+      <c r="PA3">
         <v>10</v>
       </c>
-      <c r="GJ3">
+      <c r="PB3">
         <v>10</v>
       </c>
-      <c r="GK3">
+      <c r="PC3">
         <v>10</v>
       </c>
-      <c r="GL3">
+      <c r="PD3">
         <v>10</v>
       </c>
-      <c r="GM3">
+      <c r="PE3">
         <v>10</v>
       </c>
-      <c r="GN3">
+      <c r="PF3">
         <v>10</v>
       </c>
-      <c r="GO3">
-        <v>10</v>
-      </c>
-      <c r="GP3">
+      <c r="PG3">
+        <v>9</v>
+      </c>
+      <c r="PH3">
         <v>8</v>
       </c>
-      <c r="GQ3">
+      <c r="PI3">
         <v>8</v>
       </c>
-      <c r="GR3">
+      <c r="PJ3">
         <v>7</v>
       </c>
-      <c r="GS3">
-        <v>7</v>
-      </c>
-      <c r="GT3">
+      <c r="PK3">
         <v>6</v>
       </c>
-      <c r="GU3">
+      <c r="PL3">
         <v>5</v>
       </c>
-      <c r="GV3">
+      <c r="PM3">
         <v>5</v>
       </c>
-      <c r="GW3">
+      <c r="PN3">
         <v>5</v>
       </c>
-      <c r="GX3">
+      <c r="PO3">
         <v>5</v>
       </c>
-      <c r="GY3">
+      <c r="PP3">
         <v>5</v>
       </c>
-      <c r="GZ3">
+      <c r="PQ3">
         <v>5</v>
       </c>
-      <c r="HA3">
+      <c r="PR3">
+        <v>5</v>
+      </c>
+      <c r="PS3">
+        <v>4</v>
+      </c>
+      <c r="PT3">
+        <v>4</v>
+      </c>
+      <c r="PU3">
+        <v>4</v>
+      </c>
+      <c r="PV3">
         <v>3</v>
       </c>
-      <c r="HB3">
+      <c r="PW3">
         <v>3</v>
       </c>
-      <c r="HC3">
+      <c r="PX3">
         <v>3</v>
       </c>
-      <c r="HD3">
+      <c r="PY3">
         <v>3</v>
       </c>
-      <c r="HE3">
+      <c r="PZ3">
         <v>3</v>
       </c>
-      <c r="HF3">
+      <c r="QA3">
         <v>3</v>
       </c>
-      <c r="HG3">
-        <v>0</v>
-      </c>
-      <c r="HH3">
-        <v>0</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0</v>
-      </c>
-      <c r="HK3">
-        <v>0</v>
-      </c>
-      <c r="HL3">
-        <v>0</v>
-      </c>
-      <c r="HM3">
-        <v>0</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>0</v>
-      </c>
-      <c r="HP3">
+      <c r="QB3">
+        <v>2</v>
+      </c>
+      <c r="QC3">
+        <v>2</v>
+      </c>
+      <c r="QD3">
+        <v>2</v>
+      </c>
+      <c r="QE3">
+        <v>2</v>
+      </c>
+      <c r="QF3">
+        <v>2</v>
+      </c>
+      <c r="QG3">
+        <v>1</v>
+      </c>
+      <c r="QH3">
+        <v>1</v>
+      </c>
+      <c r="QI3">
+        <v>1</v>
+      </c>
+      <c r="QJ3">
+        <v>1</v>
+      </c>
+      <c r="QK3">
+        <v>1</v>
+      </c>
+      <c r="QL3">
+        <v>1</v>
+      </c>
+      <c r="QM3">
+        <v>1</v>
+      </c>
+      <c r="QN3">
+        <v>1</v>
+      </c>
+      <c r="QO3">
+        <v>1</v>
+      </c>
+      <c r="QP3">
+        <v>1</v>
+      </c>
+      <c r="QQ3">
+        <v>1</v>
+      </c>
+      <c r="QR3">
+        <v>1</v>
+      </c>
+      <c r="QS3">
+        <v>1</v>
+      </c>
+      <c r="QT3">
+        <v>1</v>
+      </c>
+      <c r="QU3">
+        <v>1</v>
+      </c>
+      <c r="QV3">
+        <v>1</v>
+      </c>
+      <c r="QW3">
+        <v>1</v>
+      </c>
+      <c r="QX3">
+        <v>1</v>
+      </c>
+      <c r="QY3">
+        <v>1</v>
+      </c>
+      <c r="QZ3">
+        <v>1</v>
+      </c>
+      <c r="RA3">
+        <v>1</v>
+      </c>
+      <c r="RB3">
+        <v>1</v>
+      </c>
+      <c r="RC3">
+        <v>1</v>
+      </c>
+      <c r="RD3">
+        <v>1</v>
+      </c>
+      <c r="RE3">
+        <v>1</v>
+      </c>
+      <c r="RF3">
+        <v>1</v>
+      </c>
+      <c r="RG3">
+        <v>1</v>
+      </c>
+      <c r="RH3">
+        <v>1</v>
+      </c>
+      <c r="RI3">
+        <v>1</v>
+      </c>
+      <c r="RJ3">
+        <v>1</v>
+      </c>
+      <c r="RK3">
+        <v>1</v>
+      </c>
+      <c r="RL3">
+        <v>1</v>
+      </c>
+      <c r="RM3">
+        <v>1</v>
+      </c>
+      <c r="RN3">
+        <v>1</v>
+      </c>
+      <c r="RO3">
+        <v>1</v>
+      </c>
+      <c r="RP3">
+        <v>1</v>
+      </c>
+      <c r="RQ3">
+        <v>1</v>
+      </c>
+      <c r="RR3">
+        <v>1</v>
+      </c>
+      <c r="RS3">
+        <v>1</v>
+      </c>
+      <c r="RT3">
+        <v>1</v>
+      </c>
+      <c r="RU3">
+        <v>1</v>
+      </c>
+      <c r="RV3">
+        <v>1</v>
+      </c>
+      <c r="RW3">
+        <v>1</v>
+      </c>
+      <c r="RX3">
+        <v>1</v>
+      </c>
+      <c r="RY3">
+        <v>1</v>
+      </c>
+      <c r="RZ3">
+        <v>1</v>
+      </c>
+      <c r="SA3">
+        <v>1</v>
+      </c>
+      <c r="SB3">
+        <v>1</v>
+      </c>
+      <c r="SC3">
+        <v>1</v>
+      </c>
+      <c r="SD3">
+        <v>1</v>
+      </c>
+      <c r="SE3">
+        <v>1</v>
+      </c>
+      <c r="SF3">
+        <v>1</v>
+      </c>
+      <c r="SG3">
+        <v>1</v>
+      </c>
+      <c r="SH3">
+        <v>1</v>
+      </c>
+      <c r="SI3">
+        <v>0</v>
+      </c>
+      <c r="SJ3">
+        <v>0</v>
+      </c>
+      <c r="SK3">
+        <v>0</v>
+      </c>
+      <c r="SL3">
+        <v>0</v>
+      </c>
+      <c r="SM3">
+        <v>0</v>
+      </c>
+      <c r="SN3">
+        <v>0</v>
+      </c>
+      <c r="SO3">
+        <v>0</v>
+      </c>
+      <c r="SP3">
+        <v>0</v>
+      </c>
+      <c r="SQ3">
+        <v>0</v>
+      </c>
+      <c r="SR3">
         <v>0</v>
       </c>
     </row>

--- a/test/result2.xlsx
+++ b/test/result2.xlsx
@@ -14,237 +14,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
-  <si>
-    <t>28.27</t>
-  </si>
-  <si>
-    <t>28.28</t>
-  </si>
-  <si>
-    <t>28.30</t>
-  </si>
-  <si>
-    <t>28.32</t>
-  </si>
-  <si>
-    <t>28.33</t>
-  </si>
-  <si>
-    <t>28.35</t>
-  </si>
-  <si>
-    <t>28.37</t>
-  </si>
-  <si>
-    <t>28.38</t>
-  </si>
-  <si>
-    <t>28.40</t>
-  </si>
-  <si>
-    <t>28.42</t>
-  </si>
-  <si>
-    <t>28.43</t>
-  </si>
-  <si>
-    <t>28.45</t>
-  </si>
-  <si>
-    <t>28.47</t>
-  </si>
-  <si>
-    <t>28.48</t>
-  </si>
-  <si>
-    <t>28.50</t>
-  </si>
-  <si>
-    <t>28.52</t>
-  </si>
-  <si>
-    <t>28.53</t>
-  </si>
-  <si>
-    <t>28.55</t>
-  </si>
-  <si>
-    <t>28.57</t>
-  </si>
-  <si>
-    <t>28.58</t>
-  </si>
-  <si>
-    <t>28.60</t>
-  </si>
-  <si>
-    <t>28.62</t>
-  </si>
-  <si>
-    <t>28.63</t>
-  </si>
-  <si>
-    <t>28.65</t>
-  </si>
-  <si>
-    <t>28.67</t>
-  </si>
-  <si>
-    <t>28.68</t>
-  </si>
-  <si>
-    <t>28.70</t>
-  </si>
-  <si>
-    <t>28.72</t>
-  </si>
-  <si>
-    <t>28.73</t>
-  </si>
-  <si>
-    <t>28.75</t>
-  </si>
-  <si>
-    <t>28.77</t>
-  </si>
-  <si>
-    <t>28.78</t>
-  </si>
-  <si>
-    <t>28.80</t>
-  </si>
-  <si>
-    <t>28.82</t>
-  </si>
-  <si>
-    <t>28.83</t>
-  </si>
-  <si>
-    <t>28.85</t>
-  </si>
-  <si>
-    <t>28.87</t>
-  </si>
-  <si>
-    <t>28.88</t>
-  </si>
-  <si>
-    <t>28.90</t>
-  </si>
-  <si>
-    <t>28.92</t>
-  </si>
-  <si>
-    <t>28.93</t>
-  </si>
-  <si>
-    <t>28.95</t>
-  </si>
-  <si>
-    <t>28.97</t>
-  </si>
-  <si>
-    <t>28.98</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.02</t>
-  </si>
-  <si>
-    <t>29.03</t>
-  </si>
-  <si>
-    <t>29.05</t>
-  </si>
-  <si>
-    <t>29.07</t>
-  </si>
-  <si>
-    <t>29.08</t>
-  </si>
-  <si>
-    <t>29.10</t>
-  </si>
-  <si>
-    <t>29.12</t>
-  </si>
-  <si>
-    <t>29.13</t>
-  </si>
-  <si>
-    <t>29.15</t>
-  </si>
-  <si>
-    <t>29.17</t>
-  </si>
-  <si>
-    <t>29.18</t>
-  </si>
-  <si>
-    <t>29.20</t>
-  </si>
-  <si>
-    <t>29.22</t>
-  </si>
-  <si>
-    <t>29.23</t>
-  </si>
-  <si>
-    <t>29.25</t>
-  </si>
-  <si>
-    <t>29.27</t>
-  </si>
-  <si>
-    <t>29.28</t>
-  </si>
-  <si>
-    <t>29.30</t>
-  </si>
-  <si>
-    <t>29.32</t>
-  </si>
-  <si>
-    <t>29.33</t>
-  </si>
-  <si>
-    <t>29.35</t>
-  </si>
-  <si>
-    <t>29.37</t>
-  </si>
-  <si>
-    <t>29.38</t>
-  </si>
-  <si>
-    <t>29.40</t>
-  </si>
-  <si>
-    <t>29.42</t>
-  </si>
-  <si>
-    <t>29.43</t>
-  </si>
-  <si>
-    <t>29.45</t>
-  </si>
-  <si>
-    <t>29.47</t>
-  </si>
-  <si>
-    <t>29.48</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>29.52</t>
-  </si>
-  <si>
-    <t>29.53</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>12.17</t>
+  </si>
+  <si>
+    <t>12.18</t>
+  </si>
+  <si>
+    <t>12.20</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>12.25</t>
+  </si>
+  <si>
+    <t>12.27</t>
+  </si>
+  <si>
+    <t>12.28</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>12.32</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>12.35</t>
+  </si>
+  <si>
+    <t>12.37</t>
+  </si>
+  <si>
+    <t>12.38</t>
+  </si>
+  <si>
+    <t>12.40</t>
+  </si>
+  <si>
+    <t>12.42</t>
+  </si>
+  <si>
+    <t>12.43</t>
+  </si>
+  <si>
+    <t>12.45</t>
+  </si>
+  <si>
+    <t>12.47</t>
+  </si>
+  <si>
+    <t>12.48</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.52</t>
+  </si>
+  <si>
+    <t>12.53</t>
+  </si>
+  <si>
+    <t>12.55</t>
+  </si>
+  <si>
+    <t>12.57</t>
+  </si>
+  <si>
+    <t>12.58</t>
+  </si>
+  <si>
+    <t>12.60</t>
+  </si>
+  <si>
+    <t>12.62</t>
+  </si>
+  <si>
+    <t>12.63</t>
+  </si>
+  <si>
+    <t>12.65</t>
+  </si>
+  <si>
+    <t>12.67</t>
+  </si>
+  <si>
+    <t>12.68</t>
+  </si>
+  <si>
+    <t>12.70</t>
+  </si>
+  <si>
+    <t>12.72</t>
+  </si>
+  <si>
+    <t>12.73</t>
+  </si>
+  <si>
+    <t>12.75</t>
+  </si>
+  <si>
+    <t>12.77</t>
+  </si>
+  <si>
+    <t>12.78</t>
+  </si>
+  <si>
+    <t>12.80</t>
+  </si>
+  <si>
+    <t>12.82</t>
+  </si>
+  <si>
+    <t>12.83</t>
+  </si>
+  <si>
+    <t>12.85</t>
+  </si>
+  <si>
+    <t>12.87</t>
+  </si>
+  <si>
+    <t>12.88</t>
+  </si>
+  <si>
+    <t>12.90</t>
+  </si>
+  <si>
+    <t>12.92</t>
+  </si>
+  <si>
+    <t>12.93</t>
+  </si>
+  <si>
+    <t>12.95</t>
+  </si>
+  <si>
+    <t>12.97</t>
+  </si>
+  <si>
+    <t>12.98</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.02</t>
+  </si>
+  <si>
+    <t>13.03</t>
+  </si>
+  <si>
+    <t>13.05</t>
+  </si>
+  <si>
+    <t>13.07</t>
+  </si>
+  <si>
+    <t>13.08</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>13.12</t>
+  </si>
+  <si>
+    <t>13.13</t>
+  </si>
+  <si>
+    <t>13.15</t>
+  </si>
+  <si>
+    <t>13.17</t>
+  </si>
+  <si>
+    <t>13.18</t>
+  </si>
+  <si>
+    <t>13.20</t>
+  </si>
+  <si>
+    <t>13.22</t>
+  </si>
+  <si>
+    <t>13.23</t>
+  </si>
+  <si>
+    <t>13.25</t>
+  </si>
+  <si>
+    <t>13.27</t>
+  </si>
+  <si>
+    <t>13.28</t>
+  </si>
+  <si>
+    <t>13.30</t>
+  </si>
+  <si>
+    <t>13.32</t>
+  </si>
+  <si>
+    <t>13.33</t>
+  </si>
+  <si>
+    <t>13.35</t>
+  </si>
+  <si>
+    <t>13.37</t>
+  </si>
+  <si>
+    <t>13.38</t>
+  </si>
+  <si>
+    <t>13.40</t>
   </si>
 </sst>
 </file>
@@ -602,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY3"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,14 +828,8 @@
       <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:75">
       <c r="A2">
         <v>0</v>
       </c>
@@ -858,184 +846,184 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -1067,14 +1055,8 @@
       <c r="BW2">
         <v>0</v>
       </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:75">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1094,187 +1076,187 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1298,12 +1280,6 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
         <v>0</v>
       </c>
     </row>
